--- a/biology/Botanique/Sarabande_(rose)/Sarabande_(rose).xlsx
+++ b/biology/Botanique/Sarabande_(rose)/Sarabande_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Sarabande' est un cultivar de rosier obtenu en 1957 par le rosiériste français Francis Meilland. Il est issu de 'Cocorico' (Meilland, 1951) x 'Moulin Rouge' (Meilland, 1952)[1].
+'Sarabande' est un cultivar de rosier obtenu en 1957 par le rosiériste français Francis Meilland. Il est issu de 'Cocorico' (Meilland, 1951) x 'Moulin Rouge' (Meilland, 1952).
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Sarabande' se présente sous la forme d'un petit buisson de 50 cm de hauteur au feuillage semi-brillant. Ses fleurs moyennes sont semi-doubles (9-16 pétales) et d'un beau rouge orangé flamboyant, plus pâle au cœur, en coupes plutôt plates. Elles sont légèrement parfumées[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Sarabande' se présente sous la forme d'un petit buisson de 50 cm de hauteur au feuillage semi-brillant. Ses fleurs moyennes sont semi-doubles (9-16 pétales) et d'un beau rouge orangé flamboyant, plus pâle au cœur, en coupes plutôt plates. Elles sont légèrement parfumées,.
 Sa floraison est remontante.
 Sa zone de rusticité est de 6b à 9b ; il s'agit donc d'une variété résistante aux hivers froids.
-Cette variété est préférée pour le devant des massifs et en couvre-sol. Il existe une variété grimpante mutante et très vigoureuse, découverte en 1968 par Meilland qui s'élève de 2 à 4 mètres et fleurit abondamment[4].
+Cette variété est préférée pour le devant des massifs et en couvre-sol. Il existe une variété grimpante mutante et très vigoureuse, découverte en 1968 par Meilland qui s'élève de 2 à 4 mètres et fleurit abondamment.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médaille d'or de la roseraie de Bagatelle, 1957
 Médaille d'or de Genève, 1957
